--- a/labelled_csv_files/labelled_M_0100_12y3m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0100_12y3m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F53989EE-72BD-EE45-B936-E83A5E5630C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{991CA9A6-9059-E044-8FAE-8AF08E740CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12680" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0100_12y3m_1_fa" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1686,11 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>10.96</v>
       </c>
       <c r="D13">
-        <v>15.935</v>
+        <v>11.935</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -3123,7 +3123,7 @@
         <v>59.84</v>
       </c>
       <c r="D72">
-        <v>62.83</v>
+        <v>60.83</v>
       </c>
       <c r="E72" t="s">
         <v>139</v>
@@ -4643,7 +4643,7 @@
         <v>112.795</v>
       </c>
       <c r="D148">
-        <v>115.285</v>
+        <v>112.285</v>
       </c>
       <c r="E148" t="s">
         <v>259</v>
@@ -4660,10 +4660,10 @@
         <v>260</v>
       </c>
       <c r="C149">
-        <v>115.285</v>
+        <v>112.285</v>
       </c>
       <c r="D149">
-        <v>115.505</v>
+        <v>112.505</v>
       </c>
       <c r="E149" t="s">
         <v>83</v>
@@ -4680,10 +4680,10 @@
         <v>261</v>
       </c>
       <c r="C150">
-        <v>115.505</v>
+        <v>112.505</v>
       </c>
       <c r="D150">
-        <v>117.285</v>
+        <v>112.985</v>
       </c>
       <c r="E150" t="s">
         <v>262</v>
@@ -4700,10 +4700,10 @@
         <v>263</v>
       </c>
       <c r="C151">
-        <v>117.285</v>
+        <v>112.985</v>
       </c>
       <c r="D151">
-        <v>120.86499999999999</v>
+        <v>114.86499999999999</v>
       </c>
       <c r="E151" t="s">
         <v>264</v>
@@ -4720,10 +4720,10 @@
         <v>265</v>
       </c>
       <c r="C152">
-        <v>120.86499999999999</v>
+        <v>114.86499999999999</v>
       </c>
       <c r="D152">
-        <v>120.985</v>
+        <v>115.985</v>
       </c>
       <c r="E152" t="s">
         <v>188</v>
